--- a/data/trans_bre/P1419-Dificultad-trans_bre.xlsx
+++ b/data/trans_bre/P1419-Dificultad-trans_bre.xlsx
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>4.352144852957658</v>
+        <v>4.311772210193475</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>6.162011997280119</v>
+        <v>6.04723584656557</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>3.917747324809771</v>
+        <v>4.065863853928034</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>4.728829225005299</v>
+        <v>5.095504653649788</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.5927266108613629</v>
+        <v>0.5471458756091763</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>2.466540912988778</v>
+        <v>2.682815436273755</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>1.54764968851963</v>
+        <v>1.47246718614378</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>0.6394242344667762</v>
+        <v>0.6454464160149889</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>10.42322509012822</v>
+        <v>10.50325520451577</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>10.10146050805338</v>
+        <v>10.0743138970219</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>7.462990784694225</v>
+        <v>7.569460371377495</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>10.84978950978092</v>
+        <v>11.10046531552237</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>2.410281444958343</v>
+        <v>2.412576261026788</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>11.97423810651215</v>
+        <v>12.72109564492446</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>5.809415566297032</v>
+        <v>5.641458504557641</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>2.707903541028763</v>
+        <v>2.779837267656079</v>
       </c>
     </row>
     <row r="7">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>6.375767903300542</v>
+        <v>6.344584670944398</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>6.009674096779923</v>
+        <v>6.065458907313825</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>2.925781838778444</v>
+        <v>2.911961198151065</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>4.219449946727024</v>
+        <v>4.361632763888439</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>1.959582887003537</v>
+        <v>1.860079305611346</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>2.84235204071979</v>
+        <v>2.981636234044425</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8877017219075717</v>
+        <v>0.9390378937619539</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.9043898353183785</v>
+        <v>0.9146440060241093</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>10.56878420504721</v>
+        <v>10.73802246369359</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>9.851831592850228</v>
+        <v>9.857136311540961</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>6.668326010299161</v>
+        <v>6.684643018076676</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>7.897760284981782</v>
+        <v>8.01527998413996</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>6.101616216911165</v>
+        <v>5.755332362824596</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>12.55368905365919</v>
+        <v>12.96204311613686</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>4.171241326395455</v>
+        <v>4.368978826586295</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>2.873573052643939</v>
+        <v>2.877663466233507</v>
       </c>
     </row>
     <row r="10">
@@ -837,7 +837,7 @@
         <v>3.72129813716259</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>6.348591306323494</v>
+        <v>6.348591306323492</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>2.407747708735698</v>
@@ -849,7 +849,7 @@
         <v>4.730980330851518</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>2.294749488847839</v>
+        <v>2.294749488847838</v>
       </c>
     </row>
     <row r="11">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>3.492077667317753</v>
+        <v>3.559921706240876</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>3.832083674280671</v>
+        <v>3.953910853397271</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>2.076113677779349</v>
+        <v>2.031330069708466</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>4.710854938255481</v>
+        <v>4.603910453856675</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>1.14856888942943</v>
+        <v>1.155168574367142</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>2.756345431017464</v>
+        <v>2.618447894355062</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>1.257547757295455</v>
+        <v>1.440241193403307</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>1.244410550284682</v>
+        <v>1.248418500001679</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>7.116224910043884</v>
+        <v>7.13519424283419</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>7.621066207624523</v>
+        <v>7.546859620604825</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>5.503112871414096</v>
+        <v>5.708639838176708</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>8.139364623398352</v>
+        <v>8.095225124966722</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>4.427408813028482</v>
+        <v>4.311710074469602</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>18.71887255014365</v>
+        <v>16.92474876036056</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>13.61841489250648</v>
+        <v>15.87027204807416</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>3.848449417872612</v>
+        <v>3.88270696401524</v>
       </c>
     </row>
     <row r="13">
@@ -937,7 +937,7 @@
         <v>2.66861643448357</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>7.903187939586881</v>
+        <v>7.903187939586882</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>3.832352570556221</v>
@@ -949,7 +949,7 @@
         <v>4.109339935247475</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>1.793372609647823</v>
+        <v>1.793372609647824</v>
       </c>
     </row>
     <row r="14">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>6.488632441379805</v>
+        <v>6.256589735176692</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>3.828324033958304</v>
+        <v>3.831068649065544</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.8363616097548234</v>
+        <v>0.9168473918506254</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>5.719598067774545</v>
+        <v>5.804409922233082</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>1.347706048473305</v>
+        <v>1.45728467095612</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>1.569720413111958</v>
+        <v>1.979056676504515</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.08628991039311211</v>
+        <v>-0.01606746212920219</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>1.025101690457565</v>
+        <v>1.025174918429064</v>
       </c>
     </row>
     <row r="15">
@@ -992,26 +992,26 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>14.41174851879876</v>
+        <v>14.5878761355762</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>9.384380392442271</v>
+        <v>9.85207088067699</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>4.96394947140097</v>
+        <v>5.116745299159156</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>10.21277654331072</v>
+        <v>10.02565356034486</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>8.25886685790225</v>
+        <v>8.417503024643869</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>20.47612720321422</v>
+        <v>24.06573083369878</v>
       </c>
       <c r="I15" s="6" t="inlineStr"/>
       <c r="J15" s="6" t="n">
-        <v>2.894620632553985</v>
+        <v>2.773865116319821</v>
       </c>
     </row>
     <row r="16">
@@ -1035,7 +1035,7 @@
         <v>4.587005079068453</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>7.006875736188353</v>
+        <v>7.006875736188355</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>2.5553738596951</v>
@@ -1047,7 +1047,7 @@
         <v>3.010527462734766</v>
       </c>
       <c r="J16" s="6" t="n">
-        <v>1.82286155198392</v>
+        <v>1.822861551983921</v>
       </c>
     </row>
     <row r="17">
@@ -1058,28 +1058,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>6.512098950367588</v>
+        <v>6.460897595967184</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>6.255641726857622</v>
+        <v>6.293197527156987</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3.639867221813021</v>
+        <v>3.748615260714519</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>5.95001023547129</v>
+        <v>5.85054142533157</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>1.843003892914836</v>
+        <v>1.842646297430641</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>4.194553015989634</v>
+        <v>4.190832236255976</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>1.963247564729367</v>
+        <v>1.921796234470196</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>1.333819473005395</v>
+        <v>1.327829532339326</v>
       </c>
     </row>
     <row r="18">
@@ -1090,28 +1090,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>9.072308752085263</v>
+        <v>8.853344238113438</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>8.303648412779925</v>
+        <v>8.366084434666135</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>5.580425344553628</v>
+        <v>5.591803713146359</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>8.069723139510325</v>
+        <v>7.973635358826366</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>3.463569642530026</v>
+        <v>3.417541479974186</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>9.361860027445301</v>
+        <v>9.518913934279219</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>4.680255280537007</v>
+        <v>4.622641577932198</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>2.372430894158979</v>
+        <v>2.330815065020979</v>
       </c>
     </row>
     <row r="19">
